--- a/code/MMServerEngine/others/table/tables/MiGongLevel.xlsx
+++ b/code/MMServerEngine/others/table/tables/MiGongLevel.xlsx
@@ -413,7 +413,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C6"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
